--- a/SINF/bin/datos/Articulos.xlsx
+++ b/SINF/bin/datos/Articulos.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32085DA1-162A-4EC9-83D3-48C0913250B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="2385"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pruebita" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -34,22 +29,22 @@
     <t>23, fracción l</t>
   </si>
   <si>
+    <t>Portar placas en lugar inadecuado.</t>
+  </si>
+  <si>
+    <t>Multa de 5 UMAS</t>
+  </si>
+  <si>
     <t>23. fracción l</t>
   </si>
   <si>
+    <t>No portar tarjeta de circulación</t>
+  </si>
+  <si>
     <t>23, fracción l, a)</t>
   </si>
   <si>
-    <t>Portar placas en lugar inadecuado.</t>
-  </si>
-  <si>
-    <t>No portar tarjeta de circulación</t>
-  </si>
-  <si>
     <t>La falta de una de las placas en el vehículo, o que no están instaladas en las defensas.</t>
-  </si>
-  <si>
-    <t>Multa de 5 UMAS</t>
   </si>
   <si>
     <t>Multa de 5 UMA</t>
@@ -58,11 +53,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,7 +114,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1172AD96-DBF4-4936-A647-00F09A4ABD63}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -136,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -181,7 +176,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -216,7 +211,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -397,19 +392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -427,29 +417,29 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
